--- a/public/spreadsheets/balance-sheet-2021-04-18.xlsx
+++ b/public/spreadsheets/balance-sheet-2021-04-18.xlsx
@@ -2537,7 +2537,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E449"/>
+  <dimension ref="A1:E572"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -8933,6 +8933,1770 @@
       </c>
       <c r="E449" t="s">
         <v>685</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5">
+      <c r="A451" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5">
+      <c r="A452" t="s">
+        <v>1</v>
+      </c>
+      <c r="B452" t="s">
+        <v>2</v>
+      </c>
+      <c r="C452" t="s">
+        <v>3</v>
+      </c>
+      <c r="D452" t="s">
+        <v>4</v>
+      </c>
+      <c r="E452" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5">
+      <c r="A453" t="s">
+        <v>6</v>
+      </c>
+      <c r="B453"/>
+      <c r="C453"/>
+      <c r="D453"/>
+      <c r="E453"/>
+    </row>
+    <row r="454" spans="1:5">
+      <c r="A454" t="s">
+        <v>7</v>
+      </c>
+      <c r="B454"/>
+      <c r="C454"/>
+      <c r="D454"/>
+      <c r="E454"/>
+    </row>
+    <row r="455" spans="1:5">
+      <c r="A455" t="s">
+        <v>8</v>
+      </c>
+      <c r="B455"/>
+      <c r="C455"/>
+      <c r="D455"/>
+      <c r="E455"/>
+    </row>
+    <row r="456" spans="1:5">
+      <c r="A456" t="s">
+        <v>9</v>
+      </c>
+      <c r="B456" t="s">
+        <v>10</v>
+      </c>
+      <c r="C456" t="s">
+        <v>11</v>
+      </c>
+      <c r="D456" t="s">
+        <v>12</v>
+      </c>
+      <c r="E456" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5">
+      <c r="A457" t="s">
+        <v>14</v>
+      </c>
+      <c r="B457" t="s">
+        <v>15</v>
+      </c>
+      <c r="C457" t="s">
+        <v>16</v>
+      </c>
+      <c r="D457" t="s">
+        <v>17</v>
+      </c>
+      <c r="E457" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5">
+      <c r="A458" t="s">
+        <v>19</v>
+      </c>
+      <c r="B458" t="s">
+        <v>20</v>
+      </c>
+      <c r="C458" t="s">
+        <v>21</v>
+      </c>
+      <c r="D458" t="s">
+        <v>22</v>
+      </c>
+      <c r="E458" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5">
+      <c r="A459" t="s">
+        <v>24</v>
+      </c>
+      <c r="B459" t="s">
+        <v>25</v>
+      </c>
+      <c r="C459" t="s">
+        <v>26</v>
+      </c>
+      <c r="D459" t="s">
+        <v>27</v>
+      </c>
+      <c r="E459" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5">
+      <c r="A460" t="s">
+        <v>29</v>
+      </c>
+      <c r="B460" t="s">
+        <v>30</v>
+      </c>
+      <c r="C460" t="s">
+        <v>31</v>
+      </c>
+      <c r="D460" t="s">
+        <v>32</v>
+      </c>
+      <c r="E460" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5">
+      <c r="A461" t="s">
+        <v>34</v>
+      </c>
+      <c r="B461"/>
+      <c r="C461"/>
+      <c r="D461"/>
+      <c r="E461"/>
+    </row>
+    <row r="462" spans="1:5">
+      <c r="A462" t="s">
+        <v>35</v>
+      </c>
+      <c r="B462"/>
+      <c r="C462"/>
+      <c r="D462"/>
+      <c r="E462"/>
+    </row>
+    <row r="463" spans="1:5">
+      <c r="A463" t="s">
+        <v>36</v>
+      </c>
+      <c r="B463" t="s">
+        <v>37</v>
+      </c>
+      <c r="C463" t="s">
+        <v>38</v>
+      </c>
+      <c r="D463" t="s">
+        <v>39</v>
+      </c>
+      <c r="E463" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5">
+      <c r="A464" t="s">
+        <v>41</v>
+      </c>
+      <c r="B464" t="s">
+        <v>42</v>
+      </c>
+      <c r="C464" t="s">
+        <v>43</v>
+      </c>
+      <c r="D464" t="s">
+        <v>44</v>
+      </c>
+      <c r="E464" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5">
+      <c r="A465" t="s">
+        <v>46</v>
+      </c>
+      <c r="B465" t="s">
+        <v>47</v>
+      </c>
+      <c r="C465" t="s">
+        <v>48</v>
+      </c>
+      <c r="D465" t="s">
+        <v>49</v>
+      </c>
+      <c r="E465" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5">
+      <c r="A466" t="s">
+        <v>51</v>
+      </c>
+      <c r="B466" t="s">
+        <v>52</v>
+      </c>
+      <c r="C466" t="s">
+        <v>53</v>
+      </c>
+      <c r="D466" t="s">
+        <v>54</v>
+      </c>
+      <c r="E466" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5">
+      <c r="A467" t="s">
+        <v>56</v>
+      </c>
+      <c r="B467" t="s">
+        <v>57</v>
+      </c>
+      <c r="C467" t="s">
+        <v>58</v>
+      </c>
+      <c r="D467" t="s">
+        <v>59</v>
+      </c>
+      <c r="E467" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5">
+      <c r="A468" t="s">
+        <v>61</v>
+      </c>
+      <c r="B468" t="s">
+        <v>62</v>
+      </c>
+      <c r="C468" t="s">
+        <v>63</v>
+      </c>
+      <c r="D468" t="s">
+        <v>64</v>
+      </c>
+      <c r="E468" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5">
+      <c r="A469" t="s">
+        <v>66</v>
+      </c>
+      <c r="B469"/>
+      <c r="C469"/>
+      <c r="D469"/>
+      <c r="E469"/>
+    </row>
+    <row r="470" spans="1:5">
+      <c r="A470" t="s">
+        <v>67</v>
+      </c>
+      <c r="B470"/>
+      <c r="C470"/>
+      <c r="D470"/>
+      <c r="E470"/>
+    </row>
+    <row r="471" spans="1:5">
+      <c r="A471" t="s">
+        <v>68</v>
+      </c>
+      <c r="B471"/>
+      <c r="C471"/>
+      <c r="D471"/>
+      <c r="E471"/>
+    </row>
+    <row r="472" spans="1:5">
+      <c r="A472" t="s">
+        <v>69</v>
+      </c>
+      <c r="B472" t="s">
+        <v>70</v>
+      </c>
+      <c r="C472" t="s">
+        <v>71</v>
+      </c>
+      <c r="D472" t="s">
+        <v>72</v>
+      </c>
+      <c r="E472" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5">
+      <c r="A473" t="s">
+        <v>74</v>
+      </c>
+      <c r="B473" t="s">
+        <v>75</v>
+      </c>
+      <c r="C473" t="s">
+        <v>76</v>
+      </c>
+      <c r="D473" t="s">
+        <v>77</v>
+      </c>
+      <c r="E473" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5">
+      <c r="A474" t="s">
+        <v>79</v>
+      </c>
+      <c r="B474" t="s">
+        <v>55</v>
+      </c>
+      <c r="C474" t="s">
+        <v>80</v>
+      </c>
+      <c r="D474" t="s">
+        <v>81</v>
+      </c>
+      <c r="E474" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5">
+      <c r="A475" t="s">
+        <v>83</v>
+      </c>
+      <c r="B475" t="s">
+        <v>84</v>
+      </c>
+      <c r="C475" t="s">
+        <v>85</v>
+      </c>
+      <c r="D475" t="s">
+        <v>86</v>
+      </c>
+      <c r="E475" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5">
+      <c r="A476" t="s">
+        <v>88</v>
+      </c>
+      <c r="B476"/>
+      <c r="C476"/>
+      <c r="D476"/>
+      <c r="E476"/>
+    </row>
+    <row r="477" spans="1:5">
+      <c r="A477" t="s">
+        <v>89</v>
+      </c>
+      <c r="B477">
+        <v>0</v>
+      </c>
+      <c r="C477" t="s">
+        <v>90</v>
+      </c>
+      <c r="D477" t="s">
+        <v>91</v>
+      </c>
+      <c r="E477" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5">
+      <c r="A478" t="s">
+        <v>93</v>
+      </c>
+      <c r="B478" t="s">
+        <v>94</v>
+      </c>
+      <c r="C478" t="s">
+        <v>95</v>
+      </c>
+      <c r="D478" t="s">
+        <v>96</v>
+      </c>
+      <c r="E478" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5">
+      <c r="A479" t="s">
+        <v>97</v>
+      </c>
+      <c r="B479" t="s">
+        <v>55</v>
+      </c>
+      <c r="C479">
+        <v>0</v>
+      </c>
+      <c r="D479" t="s">
+        <v>55</v>
+      </c>
+      <c r="E479" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5">
+      <c r="A480" t="s">
+        <v>98</v>
+      </c>
+      <c r="B480" t="s">
+        <v>99</v>
+      </c>
+      <c r="C480" t="s">
+        <v>100</v>
+      </c>
+      <c r="D480" t="s">
+        <v>101</v>
+      </c>
+      <c r="E480" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5">
+      <c r="A481" t="s">
+        <v>103</v>
+      </c>
+      <c r="B481" t="s">
+        <v>104</v>
+      </c>
+      <c r="C481" t="s">
+        <v>105</v>
+      </c>
+      <c r="D481" t="s">
+        <v>106</v>
+      </c>
+      <c r="E481" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5">
+      <c r="A482" t="s">
+        <v>108</v>
+      </c>
+      <c r="B482"/>
+      <c r="C482"/>
+      <c r="D482"/>
+      <c r="E482"/>
+    </row>
+    <row r="483" spans="1:5">
+      <c r="A483" t="s">
+        <v>109</v>
+      </c>
+      <c r="B483" t="s">
+        <v>110</v>
+      </c>
+      <c r="C483" t="s">
+        <v>110</v>
+      </c>
+      <c r="D483" t="s">
+        <v>110</v>
+      </c>
+      <c r="E483" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5">
+      <c r="A484" t="s">
+        <v>111</v>
+      </c>
+      <c r="B484" t="s">
+        <v>112</v>
+      </c>
+      <c r="C484" t="s">
+        <v>113</v>
+      </c>
+      <c r="D484" t="s">
+        <v>114</v>
+      </c>
+      <c r="E484" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5">
+      <c r="A485" t="s">
+        <v>116</v>
+      </c>
+      <c r="B485" t="s">
+        <v>117</v>
+      </c>
+      <c r="C485" t="s">
+        <v>118</v>
+      </c>
+      <c r="D485" t="s">
+        <v>119</v>
+      </c>
+      <c r="E485" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5">
+      <c r="A486" t="s">
+        <v>121</v>
+      </c>
+      <c r="B486" t="s">
+        <v>62</v>
+      </c>
+      <c r="C486" t="s">
+        <v>63</v>
+      </c>
+      <c r="D486" t="s">
+        <v>64</v>
+      </c>
+      <c r="E486" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5">
+      <c r="A488" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5">
+      <c r="A489" t="s">
+        <v>1</v>
+      </c>
+      <c r="B489" t="s">
+        <v>123</v>
+      </c>
+      <c r="C489" t="s">
+        <v>124</v>
+      </c>
+      <c r="D489" t="s">
+        <v>125</v>
+      </c>
+      <c r="E489" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5">
+      <c r="A490" t="s">
+        <v>6</v>
+      </c>
+      <c r="B490"/>
+      <c r="C490"/>
+      <c r="D490"/>
+      <c r="E490"/>
+    </row>
+    <row r="491" spans="1:5">
+      <c r="A491" t="s">
+        <v>7</v>
+      </c>
+      <c r="B491"/>
+      <c r="C491"/>
+      <c r="D491"/>
+      <c r="E491"/>
+    </row>
+    <row r="492" spans="1:5">
+      <c r="A492" t="s">
+        <v>8</v>
+      </c>
+      <c r="B492"/>
+      <c r="C492"/>
+      <c r="D492"/>
+      <c r="E492"/>
+    </row>
+    <row r="493" spans="1:5">
+      <c r="A493" t="s">
+        <v>9</v>
+      </c>
+      <c r="B493" t="s">
+        <v>127</v>
+      </c>
+      <c r="C493" t="s">
+        <v>128</v>
+      </c>
+      <c r="D493" t="s">
+        <v>129</v>
+      </c>
+      <c r="E493" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5">
+      <c r="A494" t="s">
+        <v>14</v>
+      </c>
+      <c r="B494" t="s">
+        <v>131</v>
+      </c>
+      <c r="C494" t="s">
+        <v>132</v>
+      </c>
+      <c r="D494" t="s">
+        <v>133</v>
+      </c>
+      <c r="E494" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5">
+      <c r="A495" t="s">
+        <v>19</v>
+      </c>
+      <c r="B495" t="s">
+        <v>135</v>
+      </c>
+      <c r="C495" t="s">
+        <v>136</v>
+      </c>
+      <c r="D495" t="s">
+        <v>137</v>
+      </c>
+      <c r="E495" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5">
+      <c r="A496" t="s">
+        <v>24</v>
+      </c>
+      <c r="B496" t="s">
+        <v>139</v>
+      </c>
+      <c r="C496" t="s">
+        <v>140</v>
+      </c>
+      <c r="D496" t="s">
+        <v>141</v>
+      </c>
+      <c r="E496" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5">
+      <c r="A497" t="s">
+        <v>143</v>
+      </c>
+      <c r="B497" t="s">
+        <v>144</v>
+      </c>
+      <c r="C497" t="s">
+        <v>145</v>
+      </c>
+      <c r="D497" t="s">
+        <v>146</v>
+      </c>
+      <c r="E497" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5">
+      <c r="A498" t="s">
+        <v>148</v>
+      </c>
+      <c r="B498" t="s">
+        <v>149</v>
+      </c>
+      <c r="C498" t="s">
+        <v>150</v>
+      </c>
+      <c r="D498" t="s">
+        <v>151</v>
+      </c>
+      <c r="E498" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5">
+      <c r="A499" t="s">
+        <v>29</v>
+      </c>
+      <c r="B499" t="s">
+        <v>153</v>
+      </c>
+      <c r="C499" t="s">
+        <v>154</v>
+      </c>
+      <c r="D499" t="s">
+        <v>155</v>
+      </c>
+      <c r="E499" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5">
+      <c r="A500" t="s">
+        <v>34</v>
+      </c>
+      <c r="B500"/>
+      <c r="C500"/>
+      <c r="D500"/>
+      <c r="E500"/>
+    </row>
+    <row r="501" spans="1:5">
+      <c r="A501" t="s">
+        <v>35</v>
+      </c>
+      <c r="B501"/>
+      <c r="C501"/>
+      <c r="D501"/>
+      <c r="E501"/>
+    </row>
+    <row r="502" spans="1:5">
+      <c r="A502" t="s">
+        <v>36</v>
+      </c>
+      <c r="B502" t="s">
+        <v>157</v>
+      </c>
+      <c r="C502" t="s">
+        <v>158</v>
+      </c>
+      <c r="D502" t="s">
+        <v>159</v>
+      </c>
+      <c r="E502" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5">
+      <c r="A503" t="s">
+        <v>41</v>
+      </c>
+      <c r="B503" t="s">
+        <v>161</v>
+      </c>
+      <c r="C503" t="s">
+        <v>162</v>
+      </c>
+      <c r="D503" t="s">
+        <v>163</v>
+      </c>
+      <c r="E503" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5">
+      <c r="A504" t="s">
+        <v>46</v>
+      </c>
+      <c r="B504" t="s">
+        <v>165</v>
+      </c>
+      <c r="C504" t="s">
+        <v>166</v>
+      </c>
+      <c r="D504" t="s">
+        <v>167</v>
+      </c>
+      <c r="E504" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5">
+      <c r="A505" t="s">
+        <v>169</v>
+      </c>
+      <c r="B505" t="s">
+        <v>170</v>
+      </c>
+      <c r="C505" t="s">
+        <v>171</v>
+      </c>
+      <c r="D505" t="s">
+        <v>172</v>
+      </c>
+      <c r="E505" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5">
+      <c r="A506" t="s">
+        <v>174</v>
+      </c>
+      <c r="B506" t="s">
+        <v>175</v>
+      </c>
+      <c r="C506" t="s">
+        <v>176</v>
+      </c>
+      <c r="D506" t="s">
+        <v>177</v>
+      </c>
+      <c r="E506" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5">
+      <c r="A507" t="s">
+        <v>51</v>
+      </c>
+      <c r="B507" t="s">
+        <v>179</v>
+      </c>
+      <c r="C507" t="s">
+        <v>180</v>
+      </c>
+      <c r="D507" t="s">
+        <v>181</v>
+      </c>
+      <c r="E507" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5">
+      <c r="A508" t="s">
+        <v>56</v>
+      </c>
+      <c r="B508" t="s">
+        <v>183</v>
+      </c>
+      <c r="C508" t="s">
+        <v>184</v>
+      </c>
+      <c r="D508" t="s">
+        <v>185</v>
+      </c>
+      <c r="E508" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5">
+      <c r="A509" t="s">
+        <v>61</v>
+      </c>
+      <c r="B509" t="s">
+        <v>187</v>
+      </c>
+      <c r="C509" t="s">
+        <v>188</v>
+      </c>
+      <c r="D509" t="s">
+        <v>189</v>
+      </c>
+      <c r="E509" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5">
+      <c r="A510" t="s">
+        <v>66</v>
+      </c>
+      <c r="B510"/>
+      <c r="C510"/>
+      <c r="D510"/>
+      <c r="E510"/>
+    </row>
+    <row r="511" spans="1:5">
+      <c r="A511" t="s">
+        <v>67</v>
+      </c>
+      <c r="B511"/>
+      <c r="C511"/>
+      <c r="D511"/>
+      <c r="E511"/>
+    </row>
+    <row r="512" spans="1:5">
+      <c r="A512" t="s">
+        <v>68</v>
+      </c>
+      <c r="B512"/>
+      <c r="C512"/>
+      <c r="D512"/>
+      <c r="E512"/>
+    </row>
+    <row r="513" spans="1:5">
+      <c r="A513" t="s">
+        <v>69</v>
+      </c>
+      <c r="B513" t="s">
+        <v>191</v>
+      </c>
+      <c r="C513" t="s">
+        <v>192</v>
+      </c>
+      <c r="D513" t="s">
+        <v>193</v>
+      </c>
+      <c r="E513" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5">
+      <c r="A514" t="s">
+        <v>74</v>
+      </c>
+      <c r="B514" t="s">
+        <v>195</v>
+      </c>
+      <c r="C514" t="s">
+        <v>196</v>
+      </c>
+      <c r="D514" t="s">
+        <v>197</v>
+      </c>
+      <c r="E514" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5">
+      <c r="A515" t="s">
+        <v>199</v>
+      </c>
+      <c r="B515" t="s">
+        <v>200</v>
+      </c>
+      <c r="C515" t="s">
+        <v>201</v>
+      </c>
+      <c r="D515" t="s">
+        <v>202</v>
+      </c>
+      <c r="E515" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5">
+      <c r="A516" t="s">
+        <v>97</v>
+      </c>
+      <c r="B516" t="s">
+        <v>204</v>
+      </c>
+      <c r="C516" t="s">
+        <v>205</v>
+      </c>
+      <c r="D516" t="s">
+        <v>206</v>
+      </c>
+      <c r="E516" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5">
+      <c r="A517" t="s">
+        <v>79</v>
+      </c>
+      <c r="B517" t="s">
+        <v>208</v>
+      </c>
+      <c r="C517" t="s">
+        <v>209</v>
+      </c>
+      <c r="D517" t="s">
+        <v>210</v>
+      </c>
+      <c r="E517" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5">
+      <c r="A518" t="s">
+        <v>83</v>
+      </c>
+      <c r="B518" t="s">
+        <v>212</v>
+      </c>
+      <c r="C518" t="s">
+        <v>213</v>
+      </c>
+      <c r="D518" t="s">
+        <v>214</v>
+      </c>
+      <c r="E518" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5">
+      <c r="A519" t="s">
+        <v>88</v>
+      </c>
+      <c r="B519"/>
+      <c r="C519"/>
+      <c r="D519"/>
+      <c r="E519"/>
+    </row>
+    <row r="520" spans="1:5">
+      <c r="A520" t="s">
+        <v>89</v>
+      </c>
+      <c r="B520" t="s">
+        <v>216</v>
+      </c>
+      <c r="C520" t="s">
+        <v>217</v>
+      </c>
+      <c r="D520" t="s">
+        <v>218</v>
+      </c>
+      <c r="E520" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5">
+      <c r="A521" t="s">
+        <v>97</v>
+      </c>
+      <c r="B521" t="s">
+        <v>220</v>
+      </c>
+      <c r="C521" t="s">
+        <v>221</v>
+      </c>
+      <c r="D521" t="s">
+        <v>222</v>
+      </c>
+      <c r="E521" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5">
+      <c r="A522" t="s">
+        <v>224</v>
+      </c>
+      <c r="B522" t="s">
+        <v>225</v>
+      </c>
+      <c r="C522" t="s">
+        <v>226</v>
+      </c>
+      <c r="D522" t="s">
+        <v>227</v>
+      </c>
+      <c r="E522" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5">
+      <c r="A523" t="s">
+        <v>98</v>
+      </c>
+      <c r="B523" t="s">
+        <v>229</v>
+      </c>
+      <c r="C523" t="s">
+        <v>230</v>
+      </c>
+      <c r="D523" t="s">
+        <v>231</v>
+      </c>
+      <c r="E523" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5">
+      <c r="A524" t="s">
+        <v>103</v>
+      </c>
+      <c r="B524" t="s">
+        <v>233</v>
+      </c>
+      <c r="C524" t="s">
+        <v>234</v>
+      </c>
+      <c r="D524" t="s">
+        <v>235</v>
+      </c>
+      <c r="E524" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5">
+      <c r="A525" t="s">
+        <v>108</v>
+      </c>
+      <c r="B525"/>
+      <c r="C525"/>
+      <c r="D525"/>
+      <c r="E525"/>
+    </row>
+    <row r="526" spans="1:5">
+      <c r="A526" t="s">
+        <v>109</v>
+      </c>
+      <c r="B526" t="s">
+        <v>237</v>
+      </c>
+      <c r="C526" t="s">
+        <v>238</v>
+      </c>
+      <c r="D526" t="s">
+        <v>239</v>
+      </c>
+      <c r="E526" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5">
+      <c r="A527" t="s">
+        <v>111</v>
+      </c>
+      <c r="B527" t="s">
+        <v>241</v>
+      </c>
+      <c r="C527" t="s">
+        <v>242</v>
+      </c>
+      <c r="D527" t="s">
+        <v>243</v>
+      </c>
+      <c r="E527" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5">
+      <c r="A528" t="s">
+        <v>245</v>
+      </c>
+      <c r="B528" t="s">
+        <v>246</v>
+      </c>
+      <c r="C528" t="s">
+        <v>247</v>
+      </c>
+      <c r="D528" t="s">
+        <v>248</v>
+      </c>
+      <c r="E528" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5">
+      <c r="A529" t="s">
+        <v>116</v>
+      </c>
+      <c r="B529" t="s">
+        <v>250</v>
+      </c>
+      <c r="C529" t="s">
+        <v>251</v>
+      </c>
+      <c r="D529" t="s">
+        <v>252</v>
+      </c>
+      <c r="E529" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5">
+      <c r="A530" t="s">
+        <v>121</v>
+      </c>
+      <c r="B530" t="s">
+        <v>187</v>
+      </c>
+      <c r="C530" t="s">
+        <v>188</v>
+      </c>
+      <c r="D530" t="s">
+        <v>189</v>
+      </c>
+      <c r="E530" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5">
+      <c r="A532" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5">
+      <c r="A533" t="s">
+        <v>1</v>
+      </c>
+      <c r="B533" t="s">
+        <v>2</v>
+      </c>
+      <c r="C533" t="s">
+        <v>3</v>
+      </c>
+      <c r="D533" t="s">
+        <v>4</v>
+      </c>
+      <c r="E533" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5">
+      <c r="A534" t="s">
+        <v>6</v>
+      </c>
+      <c r="B534"/>
+      <c r="C534"/>
+      <c r="D534"/>
+      <c r="E534"/>
+    </row>
+    <row r="535" spans="1:5">
+      <c r="A535" t="s">
+        <v>7</v>
+      </c>
+      <c r="B535"/>
+      <c r="C535"/>
+      <c r="D535"/>
+      <c r="E535"/>
+    </row>
+    <row r="536" spans="1:5">
+      <c r="A536" t="s">
+        <v>8</v>
+      </c>
+      <c r="B536"/>
+      <c r="C536"/>
+      <c r="D536"/>
+      <c r="E536"/>
+    </row>
+    <row r="537" spans="1:5">
+      <c r="A537" t="s">
+        <v>9</v>
+      </c>
+      <c r="B537" t="s">
+        <v>255</v>
+      </c>
+      <c r="C537" t="s">
+        <v>256</v>
+      </c>
+      <c r="D537" t="s">
+        <v>257</v>
+      </c>
+      <c r="E537" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5">
+      <c r="A538" t="s">
+        <v>14</v>
+      </c>
+      <c r="B538" t="s">
+        <v>259</v>
+      </c>
+      <c r="C538" t="s">
+        <v>260</v>
+      </c>
+      <c r="D538" t="s">
+        <v>261</v>
+      </c>
+      <c r="E538" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5">
+      <c r="A539" t="s">
+        <v>19</v>
+      </c>
+      <c r="B539" t="s">
+        <v>263</v>
+      </c>
+      <c r="C539" t="s">
+        <v>264</v>
+      </c>
+      <c r="D539" t="s">
+        <v>265</v>
+      </c>
+      <c r="E539" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5">
+      <c r="A540" t="s">
+        <v>24</v>
+      </c>
+      <c r="B540" t="s">
+        <v>267</v>
+      </c>
+      <c r="C540" t="s">
+        <v>268</v>
+      </c>
+      <c r="D540" t="s">
+        <v>269</v>
+      </c>
+      <c r="E540" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5">
+      <c r="A541" t="s">
+        <v>143</v>
+      </c>
+      <c r="B541" t="s">
+        <v>271</v>
+      </c>
+      <c r="C541" t="s">
+        <v>272</v>
+      </c>
+      <c r="D541" t="s">
+        <v>273</v>
+      </c>
+      <c r="E541" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5">
+      <c r="A542" t="s">
+        <v>148</v>
+      </c>
+      <c r="B542" t="s">
+        <v>275</v>
+      </c>
+      <c r="C542" t="s">
+        <v>276</v>
+      </c>
+      <c r="D542" t="s">
+        <v>277</v>
+      </c>
+      <c r="E542" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5">
+      <c r="A543" t="s">
+        <v>29</v>
+      </c>
+      <c r="B543" t="s">
+        <v>278</v>
+      </c>
+      <c r="C543" t="s">
+        <v>279</v>
+      </c>
+      <c r="D543" t="s">
+        <v>280</v>
+      </c>
+      <c r="E543" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5">
+      <c r="A544" t="s">
+        <v>34</v>
+      </c>
+      <c r="B544"/>
+      <c r="C544"/>
+      <c r="D544"/>
+      <c r="E544"/>
+    </row>
+    <row r="545" spans="1:5">
+      <c r="A545" t="s">
+        <v>35</v>
+      </c>
+      <c r="B545"/>
+      <c r="C545"/>
+      <c r="D545"/>
+      <c r="E545"/>
+    </row>
+    <row r="546" spans="1:5">
+      <c r="A546" t="s">
+        <v>36</v>
+      </c>
+      <c r="B546" t="s">
+        <v>282</v>
+      </c>
+      <c r="C546" t="s">
+        <v>283</v>
+      </c>
+      <c r="D546" t="s">
+        <v>284</v>
+      </c>
+      <c r="E546" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5">
+      <c r="A547" t="s">
+        <v>41</v>
+      </c>
+      <c r="B547" t="s">
+        <v>286</v>
+      </c>
+      <c r="C547" t="s">
+        <v>287</v>
+      </c>
+      <c r="D547" t="s">
+        <v>288</v>
+      </c>
+      <c r="E547" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5">
+      <c r="A548" t="s">
+        <v>46</v>
+      </c>
+      <c r="B548" t="s">
+        <v>290</v>
+      </c>
+      <c r="C548" t="s">
+        <v>291</v>
+      </c>
+      <c r="D548" t="s">
+        <v>292</v>
+      </c>
+      <c r="E548" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5">
+      <c r="A549" t="s">
+        <v>169</v>
+      </c>
+      <c r="B549" t="s">
+        <v>294</v>
+      </c>
+      <c r="C549" t="s">
+        <v>295</v>
+      </c>
+      <c r="D549" t="s">
+        <v>55</v>
+      </c>
+      <c r="E549" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5">
+      <c r="A550" t="s">
+        <v>174</v>
+      </c>
+      <c r="B550" t="s">
+        <v>296</v>
+      </c>
+      <c r="C550" t="s">
+        <v>297</v>
+      </c>
+      <c r="D550" t="s">
+        <v>55</v>
+      </c>
+      <c r="E550" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5">
+      <c r="A551" t="s">
+        <v>51</v>
+      </c>
+      <c r="B551" t="s">
+        <v>298</v>
+      </c>
+      <c r="C551" t="s">
+        <v>299</v>
+      </c>
+      <c r="D551" t="s">
+        <v>300</v>
+      </c>
+      <c r="E551" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5">
+      <c r="A552" t="s">
+        <v>56</v>
+      </c>
+      <c r="B552" t="s">
+        <v>302</v>
+      </c>
+      <c r="C552" t="s">
+        <v>303</v>
+      </c>
+      <c r="D552" t="s">
+        <v>304</v>
+      </c>
+      <c r="E552" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5">
+      <c r="A553" t="s">
+        <v>61</v>
+      </c>
+      <c r="B553" t="s">
+        <v>306</v>
+      </c>
+      <c r="C553" t="s">
+        <v>307</v>
+      </c>
+      <c r="D553" t="s">
+        <v>308</v>
+      </c>
+      <c r="E553" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5">
+      <c r="A554" t="s">
+        <v>66</v>
+      </c>
+      <c r="B554"/>
+      <c r="C554"/>
+      <c r="D554"/>
+      <c r="E554"/>
+    </row>
+    <row r="555" spans="1:5">
+      <c r="A555" t="s">
+        <v>67</v>
+      </c>
+      <c r="B555"/>
+      <c r="C555"/>
+      <c r="D555"/>
+      <c r="E555"/>
+    </row>
+    <row r="556" spans="1:5">
+      <c r="A556" t="s">
+        <v>68</v>
+      </c>
+      <c r="B556"/>
+      <c r="C556"/>
+      <c r="D556"/>
+      <c r="E556"/>
+    </row>
+    <row r="557" spans="1:5">
+      <c r="A557" t="s">
+        <v>69</v>
+      </c>
+      <c r="B557" t="s">
+        <v>310</v>
+      </c>
+      <c r="C557" t="s">
+        <v>311</v>
+      </c>
+      <c r="D557" t="s">
+        <v>312</v>
+      </c>
+      <c r="E557" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5">
+      <c r="A558" t="s">
+        <v>74</v>
+      </c>
+      <c r="B558" t="s">
+        <v>314</v>
+      </c>
+      <c r="C558" t="s">
+        <v>315</v>
+      </c>
+      <c r="D558" t="s">
+        <v>316</v>
+      </c>
+      <c r="E558" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5">
+      <c r="A559" t="s">
+        <v>79</v>
+      </c>
+      <c r="B559">
+        <v>374</v>
+      </c>
+      <c r="C559" t="s">
+        <v>318</v>
+      </c>
+      <c r="D559" t="s">
+        <v>319</v>
+      </c>
+      <c r="E559" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5">
+      <c r="A560" t="s">
+        <v>83</v>
+      </c>
+      <c r="B560" t="s">
+        <v>320</v>
+      </c>
+      <c r="C560" t="s">
+        <v>321</v>
+      </c>
+      <c r="D560" t="s">
+        <v>322</v>
+      </c>
+      <c r="E560" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5">
+      <c r="A561" t="s">
+        <v>88</v>
+      </c>
+      <c r="B561"/>
+      <c r="C561"/>
+      <c r="D561"/>
+      <c r="E561"/>
+    </row>
+    <row r="562" spans="1:5">
+      <c r="A562" t="s">
+        <v>89</v>
+      </c>
+      <c r="B562" t="s">
+        <v>324</v>
+      </c>
+      <c r="C562" t="s">
+        <v>325</v>
+      </c>
+      <c r="D562" t="s">
+        <v>326</v>
+      </c>
+      <c r="E562" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5">
+      <c r="A563" t="s">
+        <v>93</v>
+      </c>
+      <c r="B563" t="s">
+        <v>328</v>
+      </c>
+      <c r="C563" t="s">
+        <v>329</v>
+      </c>
+      <c r="D563" t="s">
+        <v>330</v>
+      </c>
+      <c r="E563" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5">
+      <c r="A564" t="s">
+        <v>97</v>
+      </c>
+      <c r="B564" t="s">
+        <v>55</v>
+      </c>
+      <c r="C564" t="s">
+        <v>55</v>
+      </c>
+      <c r="D564" t="s">
+        <v>332</v>
+      </c>
+      <c r="E564">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5">
+      <c r="A565" t="s">
+        <v>224</v>
+      </c>
+      <c r="B565" t="s">
+        <v>55</v>
+      </c>
+      <c r="C565" t="s">
+        <v>333</v>
+      </c>
+      <c r="D565" t="s">
+        <v>334</v>
+      </c>
+      <c r="E565" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5">
+      <c r="A566" t="s">
+        <v>98</v>
+      </c>
+      <c r="B566" t="s">
+        <v>335</v>
+      </c>
+      <c r="C566" t="s">
+        <v>336</v>
+      </c>
+      <c r="D566" t="s">
+        <v>337</v>
+      </c>
+      <c r="E566" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5">
+      <c r="A567" t="s">
+        <v>103</v>
+      </c>
+      <c r="B567" t="s">
+        <v>339</v>
+      </c>
+      <c r="C567" t="s">
+        <v>340</v>
+      </c>
+      <c r="D567" t="s">
+        <v>341</v>
+      </c>
+      <c r="E567" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5">
+      <c r="A568" t="s">
+        <v>108</v>
+      </c>
+      <c r="B568"/>
+      <c r="C568"/>
+      <c r="D568"/>
+      <c r="E568"/>
+    </row>
+    <row r="569" spans="1:5">
+      <c r="A569" t="s">
+        <v>109</v>
+      </c>
+      <c r="B569" t="s">
+        <v>343</v>
+      </c>
+      <c r="C569" t="s">
+        <v>344</v>
+      </c>
+      <c r="D569" t="s">
+        <v>345</v>
+      </c>
+      <c r="E569" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5">
+      <c r="A570" t="s">
+        <v>111</v>
+      </c>
+      <c r="B570" t="s">
+        <v>347</v>
+      </c>
+      <c r="C570" t="s">
+        <v>348</v>
+      </c>
+      <c r="D570" t="s">
+        <v>349</v>
+      </c>
+      <c r="E570" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5">
+      <c r="A571" t="s">
+        <v>116</v>
+      </c>
+      <c r="B571" t="s">
+        <v>351</v>
+      </c>
+      <c r="C571" t="s">
+        <v>352</v>
+      </c>
+      <c r="D571" t="s">
+        <v>353</v>
+      </c>
+      <c r="E571" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5">
+      <c r="A572" t="s">
+        <v>121</v>
+      </c>
+      <c r="B572" t="s">
+        <v>306</v>
+      </c>
+      <c r="C572" t="s">
+        <v>307</v>
+      </c>
+      <c r="D572" t="s">
+        <v>308</v>
+      </c>
+      <c r="E572" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
